--- a/inst/extdata/toyFiles/ROC/missingEntireRow5.xlsx
+++ b/inst/extdata/toyFiles/ROC/missingEntireRow5.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11080" yWindow="1720" windowWidth="25360" windowHeight="15380" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FP" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="18">
   <si>
     <t>CaseID</t>
   </si>
@@ -60,6 +60,21 @@
   </si>
   <si>
     <t>TP_Rating</t>
+  </si>
+  <si>
+    <t>Paradigm</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>crossed</t>
+  </si>
+  <si>
+    <t>ROC</t>
   </si>
 </sst>
 </file>
@@ -914,19 +929,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,8 +956,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -953,8 +979,17 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -967,8 +1002,12 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -981,11 +1020,19 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>71</v>
       </c>
@@ -998,8 +1045,12 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>72</v>
       </c>
@@ -1012,8 +1063,12 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>73</v>
       </c>
@@ -1026,8 +1081,12 @@
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>74</v>
       </c>
@@ -1040,6 +1099,65 @@
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="E10"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/toyFiles/ROC/missingEntireRow5.xlsx
+++ b/inst/extdata/toyFiles/ROC/missingEntireRow5.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="10200" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FP" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="17">
   <si>
     <t>CaseID</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Paradigm</t>
-  </si>
-  <si>
-    <t>Design</t>
   </si>
   <si>
     <t>0,1</t>
@@ -929,10 +926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -943,7 +940,7 @@
     <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,11 +959,8 @@
       <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -980,16 +974,13 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1003,11 +994,13 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1021,18 +1014,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>71</v>
       </c>
@@ -1046,11 +1037,11 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>72</v>
       </c>
@@ -1064,11 +1055,11 @@
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>73</v>
       </c>
@@ -1082,11 +1073,11 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>74</v>
       </c>
@@ -1100,33 +1091,33 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:6">
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:6">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:6">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="5:5">

--- a/inst/extdata/toyFiles/ROC/missingEntireRow5.xlsx
+++ b/inst/extdata/toyFiles/ROC/missingEntireRow5.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/ROC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232FC162-64FF-D543-AE45-24E8F5B113A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="10200" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FP" sheetId="2" r:id="rId1"/>
     <sheet name="TRUTH" sheetId="1" r:id="rId2"/>
     <sheet name="TP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -68,16 +74,16 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>crossed</t>
+    <t>ROC</t>
   </si>
   <si>
-    <t>ROC</t>
+    <t>FCTRL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,6 +147,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -465,19 +479,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -491,7 +505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -505,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -519,7 +533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -533,7 +547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -547,7 +561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -561,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -575,7 +589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -589,7 +603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -603,7 +617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -617,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -631,7 +645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -645,7 +659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -659,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -673,7 +687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -687,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -701,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -715,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -729,7 +743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -743,7 +757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -757,7 +771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -771,7 +785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -785,7 +799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -799,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -813,7 +827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -827,7 +841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -841,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -855,7 +869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -883,7 +897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -925,14 +939,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
@@ -940,7 +954,7 @@
     <col min="6" max="6" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -977,10 +991,10 @@
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -997,10 +1011,10 @@
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1018,12 +1032,12 @@
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>71</v>
       </c>
@@ -1041,7 +1055,7 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>72</v>
       </c>
@@ -1059,7 +1073,7 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>73</v>
       </c>
@@ -1077,7 +1091,7 @@
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>74</v>
       </c>
@@ -1095,59 +1109,59 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="5:5">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="5:5">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="5:5">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="5:5">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E26" s="2"/>
     </row>
   </sheetData>
@@ -1162,19 +1176,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1191,7 +1205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1242,7 +1256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1259,7 +1273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1310,7 +1324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1327,7 +1341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1344,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1361,7 +1375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1378,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1412,7 +1426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -1429,7 +1443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1446,7 +1460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1463,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1497,7 +1511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1514,7 +1528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1531,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1548,7 +1562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1565,7 +1579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1582,7 +1596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1599,7 +1613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1616,7 +1630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1633,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
@@ -1650,7 +1664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1667,7 +1681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1684,7 +1698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1701,7 +1715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -1718,7 +1732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1735,7 +1749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -1752,7 +1766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -1769,7 +1783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1786,7 +1800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>8</v>
       </c>
@@ -1803,7 +1817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
@@ -1820,7 +1834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>8</v>
       </c>
@@ -1837,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -1854,7 +1868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -1871,7 +1885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -1888,7 +1902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -1905,7 +1919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>9</v>
       </c>
@@ -1922,7 +1936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -1939,7 +1953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
@@ -1956,7 +1970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -1973,7 +1987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>10</v>
       </c>
@@ -1990,7 +2004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>10</v>
       </c>
@@ -2007,7 +2021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>10</v>
       </c>
@@ -2024,7 +2038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
